--- a/biology/Botanique/Liste_de_roseraies/Liste_de_roseraies.xlsx
+++ b/biology/Botanique/Liste_de_roseraies/Liste_de_roseraies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente une liste de roseraies dans le monde.
 </t>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Maroc
-El Kelaâ Mgouna : La vallée des roses.
+          <t>Maroc</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>El Kelaâ Mgouna : La vallée des roses.
 Marrakech (Marrakech-Tensift-El-Haouz) : roseraie de la Koutoubia.</t>
         </is>
       </c>
@@ -545,13 +562,86 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Canada
-Montréal (Québec) : roseraie du jardin botanique.
-Sainte-Catherine-de-Hatley (Québec) : roseraie de Rose des Champs.
-Chili
-Las Condes (Province de Santiago du Chili) : Rosedal del Parque Araucano.
-États-Unis
-Berkeley (Californie) : roseraie de Berkeley
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Montréal (Québec) : roseraie du jardin botanique.
+Sainte-Catherine-de-Hatley (Québec) : roseraie de Rose des Champs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_de_roseraies</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_roseraies</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Amérique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Chili</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Las Condes (Province de Santiago du Chili) : Rosedal del Parque Araucano.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_de_roseraies</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_roseraies</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Amérique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>États-Unis</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Berkeley (Californie) : roseraie de Berkeley
 Hartford (Connecticut) : roseraie du parc Elizabeth.
 Glencoe (Illinois) : roseraie du jardin botanique de Chicago.
 Orangeburg (Caroline du Sud) : Noisette Rose Garden (roseraie dédiée aux roses Noisette) du Edisto Memorial Gardens.
@@ -560,45 +650,152 @@
 Shreveport (Louisiane) : Jardins de l'American Rose Center (roseraie de l'American Rose Society).
 Tumwater (Washington) : Centennial Rose Garden.
 Tyler (Texas) : roseraie municipale de Tyler (la plus importante des États-Unis, 38 000 plants, 500 variétés).
-Washington (district de Columbia) : roseraie de la Maison-Blanche.
-Uruguay
-roseraie de Montevideo.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Liste_de_roseraies</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_roseraies</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+Washington (district de Columbia) : roseraie de la Maison-Blanche.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_de_roseraies</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_roseraies</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Amérique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>roseraie de Montevideo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_de_roseraies</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_roseraies</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Asie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Inde
-New Delhi : National Rose Garden.
-Udhagamandalam (Nilgiris - Tamil Nadu) : Centenary Rose Garden.
-Israël
-Jérusalem : roseraie de Jérusalem (cour de la Kyriat Ben Gourion).
-Japon
-Itami (préfecture de Hyogo) : roseraie Aramaki.
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Inde</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>New Delhi : National Rose Garden.
+Udhagamandalam (Nilgiris - Tamil Nadu) : Centenary Rose Garden.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_de_roseraies</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_roseraies</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Asie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Israël</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Jérusalem : roseraie de Jérusalem (cour de la Kyriat Ben Gourion).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_de_roseraies</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_roseraies</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Asie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Japon</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Itami (préfecture de Hyogo) : roseraie Aramaki.
 Kamogun (préfecture de Shizuoka) : roseraie Kawazu Bagatelle (la roseraie sœur de Bagatelle, créée en 2001).
 Keisei (préfecture de Chiba) : roseraie de Keisei.
 Narita (préfecture de Chiba) : roseraie de Narita.
@@ -607,34 +804,39 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Liste_de_roseraies</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_roseraies</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_de_roseraies</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_roseraies</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Allemagne
-Bamberg : Roseraie de Bamberg.
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Allemagne</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Bamberg : Roseraie de Bamberg.
 Cobourg : Roseraie de Cobourg.
 Cologne : Roseraie de Cologne.
 Darmstadt (Hesse) : Park Rosenhöhe.
@@ -648,43 +850,247 @@
 Munich : roseraie Untergiesing.
 Sangerhausen (Saxe-Anhalt) : Europa-Rosarium (la plus importante roseraie du monde).
 Stuttgart (Bade-Wurtemberg) : la « vallée des Roses » du parc Killesberg.
-Uetersen (Schleswig-Holstein) : roseraie d'Uetersen.
-Autriche
-Baden (Basse-Autriche) : Österreichisches Rosarium.
-Linz (Haute-Autriche) : roseraie du jardin botanique.
-Belgique
-Chaumont-Gistoux (Brabant wallon) : roseraie environnementale de Chaumont-Gistoux.
+Uetersen (Schleswig-Holstein) : roseraie d'Uetersen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_de_roseraies</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_roseraies</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Autriche</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Baden (Basse-Autriche) : Österreichisches Rosarium.
+Linz (Haute-Autriche) : roseraie du jardin botanique.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_de_roseraies</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_roseraies</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Belgique</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Chaumont-Gistoux (Brabant wallon) : roseraie environnementale de Chaumont-Gistoux.
 Courtrai (Flandre-Occidentale) : roseraie internationale de Courtrai.
 Heks, commune de Heers (Limbourg) : roseraie du château de Heks.
 Le Rœulx (Hainaut) : roseraie du Home Saint-Jacques.
 Leeuw-Saint-Pierre (Brabant flamand) : roseraie de Coloma.
 Mechelen (Province d'Anvers) : roseraie du Vrijbroekpark.
-Deurne (Province d'Anvers) : roseraie du Rivierenhof.
-Bohême
-Průhonice : Jardin botanique Chotobuz, une partie du parc Průhonice.
+Deurne (Province d'Anvers) : roseraie du Rivierenhof.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_de_roseraies</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_roseraies</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Bohême</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Průhonice : Jardin botanique Chotobuz, une partie du parc Průhonice.
 Průhonice : Dendrologicka zahrada.
 Lidice :
 Prague : Rose Garden Petrin.
 Konopiště : Rose Garden.
-Hradec Kralove : Rosarium concurrence.
-Danemark
-Copenhague : roseraie du parc de Valby.
-Kvistgaard : roseraie Poulsen.
-Espagne
-Barcelone : roseraie du parc Cervantès.
+Hradec Kralove : Rosarium concurrence.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_de_roseraies</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_roseraies</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Danemark</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Copenhague : roseraie du parc de Valby.
+Kvistgaard : roseraie Poulsen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_de_roseraies</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_roseraies</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Espagne</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Barcelone : roseraie du parc Cervantès.
 Cordoue : roseraie du jardin botanique.
 Madrid :
 roseraie du jardin botanique royal de Madrid
 roseraie du parc du Retiro (dont la réalisation a été inspirée par la roseraie de Bagatelle à Paris).
-roseraie du parc de l'Ouest.
-France
-Alençon (Orne) : roseraie du Parc des Promenades.
+roseraie du parc de l'Ouest.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_de_roseraies</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_roseraies</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Alençon (Orne) : roseraie du Parc des Promenades.
 Angers (Maine-et-Loire) : jardins de la roseraie.
 Argoules (Somme) : roseraie des Jardins de Valloires.
 Aulnay-sous-Bois (Seine-Saint-Denis) : roseraie Honoré Daumier.
 Azay-le-Ferron (Indre) : Le château d'Azay-le-Ferron possède une roseraie intéressante.
 Beaumont-le-Hareng (Seine-Maritime) : roseraie « Roses de Normandie ».
-Bergerac (Dordogne) : Le jardin Perdoux[1](44° 51′ 10″ N, 0° 29′ 22″ E) dans le parc Jean-Jaurès. Roseraie créé en 1899.
+Bergerac (Dordogne) : Le jardin Perdoux(44° 51′ 10″ N, 0° 29′ 22″ E) dans le parc Jean-Jaurès. Roseraie créé en 1899.
 Blois (Loir-et-Cher) : roseraie des terrasses de l'évêché.
 Boulogne-Billancourt (Hauts-de-Seine) : roseraie des jardins Albert-Kahn.
 Bourg-Argental (Loire) : pépinières et roseraies Paul Croix.
@@ -694,7 +1100,7 @@
 Cluny (Saône-et-Loire) : roseraie clunisienne et clunisoise.
 Commer (Mayenne) : roseraie de la Cour de Commer (collection nationale de roses galliques agréée par le Conservatoire des collections végétales spécialisées (CCVS)).
 Compiègne (Oise) : roseraie des jardins et du parc du château, possédant le label « Jardin remarquable ».
-Couloisy (Oise) : Roseraie de Couloisy[2].
+Couloisy (Oise) : Roseraie de Couloisy.
 Doué-la-Fontaine (Maine-et-Loire) : Roseraie - Les Chemins de la Rose
 Dijon (Côte d'Or) : roseraie du Jardin botanique de l'arquebuse.
 Épinal (Vosges) : roseraie de la Maison Romaine.
@@ -729,75 +1135,420 @@
 Saint-Vincent (Pyrénées-Atlantiques) : roseraie de Barbary.
 Sarrebourg (Moselle) : roseraie de Sarrebourg.
 Saverne (Bas-Rhin) : roseraie de Saverne.
-Schiltigheim (Bas-Rhin) : roseraie de Schiltigheim[3].
-Sèvres (Hauts-de-Seine) : square Carrier-Belleuse[4].
-Toul (Meurthe-et-Moselle) : roseraie André Legrand, dans le jardin de l'Hôtel de Ville.
-Irlande
-Dublin : roseraie du jardin botanique.
-Italie
-Cavriglia (Toscane) : roseraie botanique Carla Fineschi ou roseraie de Cavriglia.
+Schiltigheim (Bas-Rhin) : roseraie de Schiltigheim.
+Sèvres (Hauts-de-Seine) : square Carrier-Belleuse.
+Toul (Meurthe-et-Moselle) : roseraie André Legrand, dans le jardin de l'Hôtel de Ville.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_de_roseraies</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_roseraies</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Irlande</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Dublin : roseraie du jardin botanique.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_de_roseraies</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_roseraies</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Italie</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Cavriglia (Toscane) : roseraie botanique Carla Fineschi ou roseraie de Cavriglia.
 Florence (Toscane) : Giardino delle Rose.
 Monza (Lombardie) : roseraie Niso Fumagalli (roseraie de l'Association italienne de la rose).
-Rome (Latium) : roseraie communale.
-Principauté de Monaco
-Monaco : roseraie Princesse Grace.
-Pays-Bas
-La Haye : Rosarium Westbroekpark.
-Wageningue : roseraie de l'institut horticole.
-Portugal
-Arco de São Jorge (Madère) : roseraie de Quinta do Arco.
-Royaume-Uni
-Aberdeen (Écosse) : Duthie Park.
+Rome (Latium) : roseraie communale.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Liste_de_roseraies</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_roseraies</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Principauté de Monaco</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Monaco : roseraie Princesse Grace.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Liste_de_roseraies</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_roseraies</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Pays-Bas</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>La Haye : Rosarium Westbroekpark.
+Wageningue : roseraie de l'institut horticole.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Liste_de_roseraies</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_roseraies</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Arco de São Jorge (Madère) : roseraie de Quinta do Arco.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Liste_de_roseraies</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_roseraies</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Royaume-Uni</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Aberdeen (Écosse) : Duthie Park.
 Mickleton (Gloucestershire) : jardins de Hidcote Manor, jardins de Kiftsgate Court.
 Romsey (Hampshire) : roseraie de l'abbaye de Mottisfont.
 St Albans (Hertfordshire) : Bone Hill, Roseraie de Saint-Albans (jardin de la Royal National Rose Society).
 Sissinghurst (Kent) : jardin de Sissinghurst Castle.
-Londres : roseraie Queen Mary (Regent's Park).
-Roumanie
-Cluj-Napoca : roseraie du Jardin botanique Alexandru-Borza.
-Suisse
-Berne : Roseraie de Berne.
+Londres : roseraie Queen Mary (Regent's Park).</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Liste_de_roseraies</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_roseraies</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Roumanie</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Cluj-Napoca : roseraie du Jardin botanique Alexandru-Borza.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Liste_de_roseraies</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_roseraies</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Suisse</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Berne : Roseraie de Berne.
 Braunwald (canton de Glaris) : Internationale Alpine Rosenprüfanlage Braunwald.
 Dottikon (canton d'Argovie) : Rosenschule Huber.
 Gelfingen (canton de Lucerne) : Rosengarten Schloß Heidegg.
 Genève (canton de Genève) : roseraie du parc de la Grange.
 Lausanne (canton de Vaud) : roseraie de la Vallée de la Jeunesse.
-Rapperswil (canton de Saint-Gall) : Rosenstadt Rapperswil.
-Tchéquie
-Prague : roseraie de Petřín.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Liste_de_roseraies</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_roseraies</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+Rapperswil (canton de Saint-Gall) : Rosenstadt Rapperswil.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Liste_de_roseraies</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_roseraies</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Tchéquie</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Prague : roseraie de Petřín.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Liste_de_roseraies</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_roseraies</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>Océanie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Australie
-Longford (Tasmanie) : Roseraie nationale d'Australie[5].
-Nouvelle-Zélande
-Parnell (Auckland)  : Nancy Steen Heritage Rose Garden.
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Australie</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Longford (Tasmanie) : Roseraie nationale d'Australie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Liste_de_roseraies</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_roseraies</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Océanie</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Nouvelle-Zélande</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Parnell (Auckland)  : Nancy Steen Heritage Rose Garden.
 Timaru (Canterbury)  : roseraie Trevor Griffiths.
 Wellington  : roseraie Lady Norwood (jardin botanique de Wellington).</t>
         </is>
